--- a/Logs/test_new/training_episode_output.xlsx
+++ b/Logs/test_new/training_episode_output.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,16 +405,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.5099999904632568</v>
+        <v>-2.25600004196167</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2599999904632568</v>
+        <v>1.25600004196167</v>
       </c>
       <c r="D2">
-        <v>2.039999961853027</v>
+        <v>2.25600004196167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,203 +422,203 @@
         <v>-1</v>
       </c>
       <c r="B3">
-        <v>0.3600000143051147</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.777777671813965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-1</v>
+        <v>-5.894999980926514</v>
       </c>
       <c r="B4">
-        <v>0.2599999904632568</v>
+        <v>1.616000056266785</v>
       </c>
       <c r="C4">
-        <v>0.7400000095367432</v>
+        <v>4.278999805450439</v>
       </c>
       <c r="D4">
-        <v>3.846153974533081</v>
+        <v>3.647895812988281</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-2.069999933242798</v>
+        <v>-3.871000051498413</v>
       </c>
       <c r="B5">
-        <v>0.4000000059604645</v>
+        <v>1.342000007629395</v>
       </c>
       <c r="C5">
-        <v>1.669999957084656</v>
+        <v>2.529000043869019</v>
       </c>
       <c r="D5">
-        <v>5.174999713897705</v>
+        <v>2.884500741958618</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-1.220000028610229</v>
+        <v>-1.730000019073486</v>
       </c>
       <c r="B6">
-        <v>0.3400000035762787</v>
+        <v>1.580999970436096</v>
       </c>
       <c r="C6">
-        <v>0.8799999952316284</v>
+        <v>0.1490000486373901</v>
       </c>
       <c r="D6">
-        <v>3.588235378265381</v>
+        <v>1.094244122505188</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>-0.7099999785423279</v>
+        <v>-1.307000041007996</v>
       </c>
       <c r="B7">
-        <v>0.3499999940395355</v>
+        <v>1.023000001907349</v>
       </c>
       <c r="C7">
-        <v>0.3599999845027924</v>
+        <v>0.284000039100647</v>
       </c>
       <c r="D7">
-        <v>2.028571367263794</v>
+        <v>1.277614951133728</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>-0.4300000071525574</v>
+        <v>-3.551000118255615</v>
       </c>
       <c r="B8">
-        <v>0.4300000071525574</v>
+        <v>1.33299994468689</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.218000173568726</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2.663916110992432</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>-0.3300000131130219</v>
+        <v>-2.944999933242798</v>
       </c>
       <c r="B9">
-        <v>0.3300000131130219</v>
+        <v>1.248000025749207</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.696999907493591</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2.359775543212891</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>-1</v>
+        <v>-5.190999984741211</v>
       </c>
       <c r="B10">
-        <v>0.3899999856948853</v>
+        <v>1.276000022888184</v>
       </c>
       <c r="C10">
-        <v>0.6100000143051147</v>
+        <v>3.914999961853027</v>
       </c>
       <c r="D10">
-        <v>2.564102649688721</v>
+        <v>4.06818151473999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>-1</v>
+        <v>-1.784000039100647</v>
       </c>
       <c r="B11">
-        <v>0.4099999964237213</v>
+        <v>1.784000039100647</v>
       </c>
       <c r="C11">
-        <v>0.5900000333786011</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2.439024448394775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>-1</v>
+        <v>-2.084000110626221</v>
       </c>
       <c r="B12">
-        <v>0.4399999976158142</v>
+        <v>1.026999950408936</v>
       </c>
       <c r="C12">
-        <v>0.5600000023841858</v>
+        <v>1.057000160217285</v>
       </c>
       <c r="D12">
-        <v>2.272727251052856</v>
+        <v>2.029211521148682</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-1</v>
+        <v>-3.443000078201294</v>
       </c>
       <c r="B13">
-        <v>0.4300000071525574</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.5699999928474426</v>
+        <v>2.443000078201294</v>
       </c>
       <c r="D13">
-        <v>2.325581312179565</v>
+        <v>3.443000078201294</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-1.370000004768372</v>
+        <v>-1</v>
       </c>
       <c r="B14">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.9800000190734863</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3.512820720672607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-1</v>
+        <v>-1.223999977111816</v>
       </c>
       <c r="B15">
-        <v>0.2800000011920929</v>
+        <v>1.223999977111816</v>
       </c>
       <c r="C15">
-        <v>0.7200000286102295</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3.571428537368774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>-1</v>
+        <v>-1.947999954223633</v>
       </c>
       <c r="B16">
-        <v>0.3199999928474426</v>
+        <v>1.315999984741211</v>
       </c>
       <c r="C16">
-        <v>0.6800000071525574</v>
+        <v>0.6319999694824219</v>
       </c>
       <c r="D16">
-        <v>3.125</v>
+        <v>1.48024308681488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>-0.4900000095367432</v>
+        <v>-1.315999984741211</v>
       </c>
       <c r="B17">
-        <v>0.4900000095367432</v>
+        <v>1.315999984741211</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -629,142 +629,142 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>-0.7599999904632568</v>
+        <v>-1</v>
       </c>
       <c r="B18">
-        <v>0.3199999928474426</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.4399999976158142</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>-1.460000038146973</v>
+        <v>-1.304999947547913</v>
       </c>
       <c r="B19">
-        <v>0.3499999940395355</v>
+        <v>1.004999995231628</v>
       </c>
       <c r="C19">
-        <v>1.110000014305115</v>
+        <v>0.2999999523162842</v>
       </c>
       <c r="D19">
-        <v>4.171428680419922</v>
+        <v>1.298507452011108</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>-0.4199999868869781</v>
+        <v>-2.601999998092651</v>
       </c>
       <c r="B20">
-        <v>0.2700000107288361</v>
+        <v>1.394000053405762</v>
       </c>
       <c r="C20">
-        <v>0.1499999761581421</v>
+        <v>1.20799994468689</v>
       </c>
       <c r="D20">
-        <v>1.555555462837219</v>
+        <v>1.866570949554443</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>-0.5099999904632568</v>
+        <v>-4.320000171661377</v>
       </c>
       <c r="B21">
-        <v>0.300000011920929</v>
+        <v>1.447000026702881</v>
       </c>
       <c r="C21">
-        <v>0.2099999785423279</v>
+        <v>2.873000144958496</v>
       </c>
       <c r="D21">
-        <v>1.699999928474426</v>
+        <v>2.985487222671509</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>-1</v>
+        <v>-2.770999908447266</v>
       </c>
       <c r="B22">
-        <v>0.3199999928474426</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C22">
-        <v>0.6800000071525574</v>
+        <v>1.670999884605408</v>
       </c>
       <c r="D22">
-        <v>3.125</v>
+        <v>2.51909065246582</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>-1.269999980926514</v>
+        <v>-1.620000004768372</v>
       </c>
       <c r="B23">
-        <v>0.3100000023841858</v>
+        <v>1.33899998664856</v>
       </c>
       <c r="C23">
-        <v>0.9599999785423279</v>
+        <v>0.281000018119812</v>
       </c>
       <c r="D23">
-        <v>4.096774101257324</v>
+        <v>1.209858059883118</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>-0.4199999868869781</v>
+        <v>-3.394999980926514</v>
       </c>
       <c r="B24">
-        <v>0.3100000023841858</v>
+        <v>1.241999983787537</v>
       </c>
       <c r="C24">
-        <v>0.1099999845027924</v>
+        <v>2.152999877929688</v>
       </c>
       <c r="D24">
-        <v>1.354838609695435</v>
+        <v>2.733494281768799</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>-1</v>
+        <v>-4.742000102996826</v>
       </c>
       <c r="B25">
-        <v>0.4600000083446503</v>
+        <v>1.710000038146973</v>
       </c>
       <c r="C25">
-        <v>0.5399999618530273</v>
+        <v>3.032000064849854</v>
       </c>
       <c r="D25">
-        <v>2.17391300201416</v>
+        <v>2.773099422454834</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>-1</v>
+        <v>-1.342000007629395</v>
       </c>
       <c r="B26">
-        <v>0.2899999916553497</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.7100000381469727</v>
+        <v>0.3420000076293945</v>
       </c>
       <c r="D26">
-        <v>3.448276042938232</v>
+        <v>1.342000007629395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>-1</v>
+        <v>-3.905999898910522</v>
       </c>
       <c r="B27">
-        <v>0.25</v>
+        <v>1.223999977111816</v>
       </c>
       <c r="C27">
-        <v>0.75</v>
+        <v>2.681999921798706</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3.191176414489746</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,77 +772,77 @@
         <v>-1</v>
       </c>
       <c r="B28">
-        <v>0.3499999940395355</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.6499999761581421</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2.857142925262451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>-1</v>
+        <v>-17.26600074768066</v>
       </c>
       <c r="B29">
-        <v>0.2800000011920929</v>
+        <v>2.789000034332275</v>
       </c>
       <c r="C29">
-        <v>0.7200000286102295</v>
+        <v>14.47700119018555</v>
       </c>
       <c r="D29">
-        <v>3.571428537368774</v>
+        <v>6.190749645233154</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>-1.210000038146973</v>
+        <v>-10.89099979400635</v>
       </c>
       <c r="B30">
-        <v>0.3100000023841858</v>
+        <v>1.238999962806702</v>
       </c>
       <c r="C30">
-        <v>0.9000000357627869</v>
+        <v>9.651999473571777</v>
       </c>
       <c r="D30">
-        <v>3.903225898742676</v>
+        <v>8.790153503417969</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>-0.4900000095367432</v>
+        <v>-1.975000023841858</v>
       </c>
       <c r="B31">
-        <v>0.3300000131130219</v>
+        <v>1.631999969482422</v>
       </c>
       <c r="C31">
-        <v>0.1599999964237213</v>
+        <v>0.343000054359436</v>
       </c>
       <c r="D31">
-        <v>1.484848499298096</v>
+        <v>1.210171580314636</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>-1.299999952316284</v>
+        <v>-3.318000078201294</v>
       </c>
       <c r="B32">
-        <v>0.3499999940395355</v>
+        <v>1.529999971389771</v>
       </c>
       <c r="C32">
-        <v>0.9499999284744263</v>
+        <v>1.788000106811523</v>
       </c>
       <c r="D32">
-        <v>3.714285612106323</v>
+        <v>2.168627500534058</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>-0.3199999928474426</v>
+        <v>-1</v>
       </c>
       <c r="B33">
-        <v>0.3199999928474426</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -853,542 +853,542 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>-0.4099999964237213</v>
+        <v>-6.215000152587891</v>
       </c>
       <c r="B34">
-        <v>0.3300000131130219</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.07999998331069946</v>
+        <v>5.215000152587891</v>
       </c>
       <c r="D34">
-        <v>1.242424130439758</v>
+        <v>6.215000152587891</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>-1.480000019073486</v>
+        <v>-14.69499969482422</v>
       </c>
       <c r="B35">
-        <v>0.2800000011920929</v>
+        <v>1.432000041007996</v>
       </c>
       <c r="C35">
-        <v>1.200000047683716</v>
+        <v>13.26299953460693</v>
       </c>
       <c r="D35">
-        <v>5.285714149475098</v>
+        <v>10.26187133789062</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>-1</v>
+        <v>-2.023000001907349</v>
       </c>
       <c r="B36">
-        <v>0.2700000107288361</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="C36">
-        <v>0.7300000190734863</v>
+        <v>0.7829999923706055</v>
       </c>
       <c r="D36">
-        <v>3.703703641891479</v>
+        <v>1.631451606750488</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>-0.3100000023841858</v>
+        <v>-5.254000186920166</v>
       </c>
       <c r="B37">
-        <v>0.3100000023841858</v>
+        <v>1.223999977111816</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.03000020980835</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4.292483806610107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>-0.4099999964237213</v>
+        <v>-3.095999956130981</v>
       </c>
       <c r="B38">
-        <v>0.3600000143051147</v>
+        <v>1.276999950408936</v>
       </c>
       <c r="C38">
-        <v>0.04999998211860657</v>
+        <v>1.819000005722046</v>
       </c>
       <c r="D38">
-        <v>1.138888835906982</v>
+        <v>2.424432277679443</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>-1</v>
+        <v>-1.66100001335144</v>
       </c>
       <c r="B39">
-        <v>0.2700000107288361</v>
+        <v>1.66100001335144</v>
       </c>
       <c r="C39">
-        <v>0.7300000190734863</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>3.703703641891479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>-1.200000047683716</v>
+        <v>-3.684000015258789</v>
       </c>
       <c r="B40">
-        <v>0.3100000023841858</v>
+        <v>1.894999980926514</v>
       </c>
       <c r="C40">
-        <v>0.89000004529953</v>
+        <v>1.789000034332275</v>
       </c>
       <c r="D40">
-        <v>3.870967864990234</v>
+        <v>1.944063305854797</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>-0.2800000011920929</v>
+        <v>-2.905999898910522</v>
       </c>
       <c r="B41">
-        <v>0.2800000011920929</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1.705999851226807</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2.421666383743286</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>-0.3400000035762787</v>
+        <v>-8.046999931335449</v>
       </c>
       <c r="B42">
-        <v>0.3400000035762787</v>
+        <v>1.322000026702881</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>6.724999904632568</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>6.086989402770996</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>-1.110000014305115</v>
+        <v>-1</v>
       </c>
       <c r="B43">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>3.580645084381104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>-0.9300000071525574</v>
+        <v>-3.161999940872192</v>
       </c>
       <c r="B44">
-        <v>0.4000000059604645</v>
+        <v>1.896999955177307</v>
       </c>
       <c r="C44">
-        <v>0.5299999713897705</v>
+        <v>1.264999985694885</v>
       </c>
       <c r="D44">
-        <v>2.325000047683716</v>
+        <v>1.666842341423035</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>-1.519999980926514</v>
+        <v>-3</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>1.631999969482422</v>
       </c>
       <c r="C45">
-        <v>0.5199999809265137</v>
+        <v>1.368000030517578</v>
       </c>
       <c r="D45">
-        <v>1.519999980926514</v>
+        <v>1.838235378265381</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>-0.3600000143051147</v>
+        <v>-4.965000152587891</v>
       </c>
       <c r="B46">
-        <v>0.3600000143051147</v>
+        <v>1.427000045776367</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3.538000106811523</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3.479327201843262</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>-3.589999914169312</v>
+        <v>-1.144999980926514</v>
       </c>
       <c r="B47">
-        <v>0.3400000035762787</v>
+        <v>1.144000053405762</v>
       </c>
       <c r="C47">
-        <v>3.25</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="D47">
-        <v>10.55882358551025</v>
+        <v>1.000874042510986</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>-0.7099999785423279</v>
+        <v>-1.526999950408936</v>
       </c>
       <c r="B48">
-        <v>0.3499999940395355</v>
+        <v>1.526999950408936</v>
       </c>
       <c r="C48">
-        <v>0.3599999845027924</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2.028571367263794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>-2.410000085830688</v>
+        <v>-1</v>
       </c>
       <c r="B49">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2.019999980926514</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>6.179487705230713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>-2.299999952316284</v>
+        <v>-2.266000032424927</v>
       </c>
       <c r="B50">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2.049999952316284</v>
+        <v>1.266000032424927</v>
       </c>
       <c r="D50">
-        <v>9.199999809265137</v>
+        <v>2.266000032424927</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>-1.320000052452087</v>
+        <v>-3.252000093460083</v>
       </c>
       <c r="B51">
-        <v>0.3600000143051147</v>
+        <v>1.251000046730042</v>
       </c>
       <c r="C51">
-        <v>0.9600000381469727</v>
+        <v>2.000999927520752</v>
       </c>
       <c r="D51">
-        <v>3.666666746139526</v>
+        <v>2.599520444869995</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>-1</v>
+        <v>-8.694999694824219</v>
       </c>
       <c r="B52">
-        <v>0.4099999964237213</v>
+        <v>1.13100004196167</v>
       </c>
       <c r="C52">
-        <v>0.5900000333786011</v>
+        <v>7.563999652862549</v>
       </c>
       <c r="D52">
-        <v>2.439024448394775</v>
+        <v>7.687886238098145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>-1</v>
+        <v>-2.752000093460083</v>
       </c>
       <c r="B53">
-        <v>0.4099999964237213</v>
+        <v>1.197999954223633</v>
       </c>
       <c r="C53">
-        <v>0.5900000333786011</v>
+        <v>1.55400013923645</v>
       </c>
       <c r="D53">
-        <v>2.439024448394775</v>
+        <v>2.297162055969238</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>-1.970000028610229</v>
+        <v>-5.296999931335449</v>
       </c>
       <c r="B54">
-        <v>0.3199999928474426</v>
+        <v>1.154000043869019</v>
       </c>
       <c r="C54">
-        <v>1.650000095367432</v>
+        <v>4.142999649047852</v>
       </c>
       <c r="D54">
-        <v>6.15625</v>
+        <v>4.590121269226074</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>-0.4900000095367432</v>
+        <v>-1.371000051498413</v>
       </c>
       <c r="B55">
-        <v>0.3300000131130219</v>
+        <v>1.371000051498413</v>
       </c>
       <c r="C55">
-        <v>0.1599999964237213</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1.484848499298096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>-0.8199999928474426</v>
+        <v>-1.01199996471405</v>
       </c>
       <c r="B56">
-        <v>0.3499999940395355</v>
+        <v>1.01199996471405</v>
       </c>
       <c r="C56">
-        <v>0.4699999988079071</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2.342857122421265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>-1</v>
+        <v>-8.218999862670898</v>
       </c>
       <c r="B57">
-        <v>0.4099999964237213</v>
+        <v>1.026999950408936</v>
       </c>
       <c r="C57">
-        <v>0.5900000333786011</v>
+        <v>7.191999912261963</v>
       </c>
       <c r="D57">
-        <v>2.439024448394775</v>
+        <v>8.002921104431152</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>-1</v>
+        <v>-5.144999980926514</v>
       </c>
       <c r="B58">
-        <v>0.2899999916553497</v>
+        <v>1.901000022888184</v>
       </c>
       <c r="C58">
-        <v>0.7100000381469727</v>
+        <v>3.24399995803833</v>
       </c>
       <c r="D58">
-        <v>3.448276042938232</v>
+        <v>2.706470251083374</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>-2.549999952316284</v>
+        <v>-2.339999914169312</v>
       </c>
       <c r="B59">
-        <v>0.3499999940395355</v>
+        <v>1.391999959945679</v>
       </c>
       <c r="C59">
-        <v>2.200000047683716</v>
+        <v>0.9479999542236328</v>
       </c>
       <c r="D59">
-        <v>7.285714149475098</v>
+        <v>1.681034445762634</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>-1</v>
+        <v>-1.062000036239624</v>
       </c>
       <c r="B60">
-        <v>0.3700000047683716</v>
+        <v>1.062000036239624</v>
       </c>
       <c r="C60">
-        <v>0.6299999952316284</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2.702702760696411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>-1.350000023841858</v>
+        <v>-1.491000056266785</v>
       </c>
       <c r="B61">
-        <v>0.3199999928474426</v>
+        <v>1.414000034332275</v>
       </c>
       <c r="C61">
-        <v>1.029999971389771</v>
+        <v>0.07700002193450928</v>
       </c>
       <c r="D61">
-        <v>4.21875</v>
+        <v>1.054455518722534</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>-1</v>
+        <v>-2.996000051498413</v>
       </c>
       <c r="B62">
-        <v>0.4000000059604645</v>
+        <v>1.580999970436096</v>
       </c>
       <c r="C62">
-        <v>0.6000000238418579</v>
+        <v>1.415000081062317</v>
       </c>
       <c r="D62">
-        <v>2.5</v>
+        <v>1.895003199577332</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>-1.840000033378601</v>
+        <v>-3.851999998092651</v>
       </c>
       <c r="B63">
-        <v>0.2700000107288361</v>
+        <v>1.251000046730042</v>
       </c>
       <c r="C63">
-        <v>1.570000052452087</v>
+        <v>2.60099983215332</v>
       </c>
       <c r="D63">
-        <v>6.814814567565918</v>
+        <v>3.079136610031128</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>-0.6200000047683716</v>
+        <v>-2.845999956130981</v>
       </c>
       <c r="B64">
-        <v>0.25</v>
+        <v>1.194000005722046</v>
       </c>
       <c r="C64">
-        <v>0.3700000047683716</v>
+        <v>1.651999950408936</v>
       </c>
       <c r="D64">
-        <v>2.480000019073486</v>
+        <v>2.383584499359131</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>-1.320000052452087</v>
+        <v>-4.176000118255615</v>
       </c>
       <c r="B65">
-        <v>0.4099999964237213</v>
+        <v>1.791000008583069</v>
       </c>
       <c r="C65">
-        <v>0.9100000858306885</v>
+        <v>2.385000228881836</v>
       </c>
       <c r="D65">
-        <v>3.219512462615967</v>
+        <v>2.331658363342285</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>-1</v>
+        <v>-3.604000091552734</v>
       </c>
       <c r="B66">
-        <v>0.3100000023841858</v>
+        <v>1.33899998664856</v>
       </c>
       <c r="C66">
-        <v>0.6899999976158142</v>
+        <v>2.265000104904175</v>
       </c>
       <c r="D66">
-        <v>3.225806474685669</v>
+        <v>2.691560983657837</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>-1</v>
+        <v>-3.996000051498413</v>
       </c>
       <c r="B67">
-        <v>0.3400000035762787</v>
+        <v>1.526999950408936</v>
       </c>
       <c r="C67">
-        <v>0.6599999666213989</v>
+        <v>2.469000101089478</v>
       </c>
       <c r="D67">
-        <v>2.941176414489746</v>
+        <v>2.616895914077759</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>-1.120000004768372</v>
+        <v>-1.876999974250793</v>
       </c>
       <c r="B68">
-        <v>0.2700000107288361</v>
+        <v>1.554999947547913</v>
       </c>
       <c r="C68">
-        <v>0.8500000238418579</v>
+        <v>0.3220000267028809</v>
       </c>
       <c r="D68">
-        <v>4.148148059844971</v>
+        <v>1.207073926925659</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>-1</v>
+        <v>-2.809000015258789</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>1.309000015258789</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2.145912885665894</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>-0.7200000286102295</v>
+        <v>-3.642999887466431</v>
       </c>
       <c r="B70">
-        <v>0.300000011920929</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>0.4200000166893005</v>
+        <v>2.642999887466431</v>
       </c>
       <c r="D70">
-        <v>2.400000095367432</v>
+        <v>3.642999887466431</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>-1</v>
+        <v>-2.940999984741211</v>
       </c>
       <c r="B71">
-        <v>0.3400000035762787</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>0.6599999666213989</v>
+        <v>1.940999984741211</v>
       </c>
       <c r="D71">
-        <v>2.941176414489746</v>
+        <v>2.940999984741211</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>-0.2899999916553497</v>
+        <v>-1.38699996471405</v>
       </c>
       <c r="B72">
-        <v>0.2899999916553497</v>
+        <v>1.38699996471405</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1399,268 +1399,268 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>-0.3799999952316284</v>
+        <v>-2.625</v>
       </c>
       <c r="B73">
-        <v>0.3799999952316284</v>
+        <v>1.027999997138977</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1.597000002861023</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2.553501844406128</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>-1</v>
+        <v>-5.051000118255615</v>
       </c>
       <c r="B74">
-        <v>0.2899999916553497</v>
+        <v>1.054999947547913</v>
       </c>
       <c r="C74">
-        <v>0.7100000381469727</v>
+        <v>3.996000289916992</v>
       </c>
       <c r="D74">
-        <v>3.448276042938232</v>
+        <v>4.787678241729736</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>-1.320000052452087</v>
+        <v>-5.26200008392334</v>
       </c>
       <c r="B75">
-        <v>0.2700000107288361</v>
+        <v>1.263000011444092</v>
       </c>
       <c r="C75">
-        <v>1.050000071525574</v>
+        <v>3.999000072479248</v>
       </c>
       <c r="D75">
-        <v>4.888888835906982</v>
+        <v>4.166270732879639</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>-0.8100000023841858</v>
+        <v>-1.144999980926514</v>
       </c>
       <c r="B76">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>0.5</v>
+        <v>0.1449999809265137</v>
       </c>
       <c r="D76">
-        <v>2.612903118133545</v>
+        <v>1.144999980926514</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>-1</v>
+        <v>-3.13700008392334</v>
       </c>
       <c r="B77">
-        <v>0.2800000011920929</v>
+        <v>1.138000011444092</v>
       </c>
       <c r="C77">
-        <v>0.7200000286102295</v>
+        <v>1.999000072479248</v>
       </c>
       <c r="D77">
-        <v>3.571428537368774</v>
+        <v>2.756590604782104</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>-1</v>
+        <v>-1.154000043869019</v>
       </c>
       <c r="B78">
-        <v>0.2700000107288361</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0.7300000190734863</v>
+        <v>0.1540000438690186</v>
       </c>
       <c r="D78">
-        <v>3.703703641891479</v>
+        <v>1.154000043869019</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>-0.4000000059604645</v>
+        <v>-2.905999898910522</v>
       </c>
       <c r="B79">
-        <v>0.2700000107288361</v>
+        <v>1.491000056266785</v>
       </c>
       <c r="C79">
-        <v>0.1299999952316284</v>
+        <v>1.414999842643738</v>
       </c>
       <c r="D79">
-        <v>1.481481432914734</v>
+        <v>1.949027299880981</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>-0.699999988079071</v>
+        <v>-6.492000102996826</v>
       </c>
       <c r="B80">
-        <v>0.3600000143051147</v>
+        <v>1.078999996185303</v>
       </c>
       <c r="C80">
-        <v>0.3399999737739563</v>
+        <v>5.413000106811523</v>
       </c>
       <c r="D80">
-        <v>1.944444298744202</v>
+        <v>6.016682147979736</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>-0.4199999868869781</v>
+        <v>-1.958999991416931</v>
       </c>
       <c r="B81">
-        <v>0.3700000047683716</v>
+        <v>1.391999959945679</v>
       </c>
       <c r="C81">
-        <v>0.04999998211860657</v>
+        <v>0.5670000314712524</v>
       </c>
       <c r="D81">
-        <v>1.135135054588318</v>
+        <v>1.407327651977539</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>-1.429999947547913</v>
+        <v>-1</v>
       </c>
       <c r="B82">
-        <v>0.2599999904632568</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1.169999957084656</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>-0.5299999713897705</v>
+        <v>-2.559000015258789</v>
       </c>
       <c r="B83">
-        <v>0.4300000071525574</v>
+        <v>1.059000015258789</v>
       </c>
       <c r="C83">
-        <v>0.09999996423721313</v>
+        <v>1.5</v>
       </c>
       <c r="D83">
-        <v>1.232558012008667</v>
+        <v>2.416430473327637</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>-1.139999985694885</v>
+        <v>-2.378999948501587</v>
       </c>
       <c r="B84">
-        <v>0.2899999916553497</v>
+        <v>1.121999979019165</v>
       </c>
       <c r="C84">
-        <v>0.8500000238418579</v>
+        <v>1.256999969482422</v>
       </c>
       <c r="D84">
-        <v>3.931034564971924</v>
+        <v>2.120320796966553</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>-1</v>
+        <v>-1.062000036239624</v>
       </c>
       <c r="B85">
-        <v>0.3499999940395355</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>0.6499999761581421</v>
+        <v>0.06200003623962402</v>
       </c>
       <c r="D85">
-        <v>2.857142925262451</v>
+        <v>1.062000036239624</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>-1.629999995231628</v>
+        <v>-1.707000017166138</v>
       </c>
       <c r="B86">
-        <v>0.4099999964237213</v>
+        <v>1.309000015258789</v>
       </c>
       <c r="C86">
-        <v>1.220000028610229</v>
+        <v>0.3980000019073486</v>
       </c>
       <c r="D86">
-        <v>3.97560977935791</v>
+        <v>1.304048895835876</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>-0.5699999928474426</v>
+        <v>-1.884999990463257</v>
       </c>
       <c r="B87">
-        <v>0.2599999904632568</v>
+        <v>1.269000053405762</v>
       </c>
       <c r="C87">
-        <v>0.3100000023841858</v>
+        <v>0.6159999370574951</v>
       </c>
       <c r="D87">
-        <v>2.192307710647583</v>
+        <v>1.485421538352966</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>-1.220000028610229</v>
+        <v>-1.082000017166138</v>
       </c>
       <c r="B88">
-        <v>0.3600000143051147</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>0.8600000143051147</v>
+        <v>0.0820000171661377</v>
       </c>
       <c r="D88">
-        <v>3.388888835906982</v>
+        <v>1.082000017166138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>-0.2899999916553497</v>
+        <v>-6.718999862670898</v>
       </c>
       <c r="B89">
-        <v>0.2899999916553497</v>
+        <v>1.059000015258789</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>6.344664573669434</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>-1.669999957084656</v>
+        <v>-1</v>
       </c>
       <c r="B90">
-        <v>0.2700000107288361</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1.399999976158142</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>6.185184955596924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>-1</v>
+        <v>-5.210999965667725</v>
       </c>
       <c r="B91">
-        <v>0.4699999988079071</v>
+        <v>2.158999919891357</v>
       </c>
       <c r="C91">
-        <v>0.5299999713897705</v>
+        <v>3.052000045776367</v>
       </c>
       <c r="D91">
-        <v>2.127659559249878</v>
+        <v>2.413617372512817</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,111 +1668,111 @@
         <v>-1</v>
       </c>
       <c r="B92">
-        <v>0.2800000011920929</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0.7200000286102295</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>3.571428537368774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>-1</v>
+        <v>-3.480000019073486</v>
       </c>
       <c r="B93">
-        <v>0.3499999940395355</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>0.6499999761581421</v>
+        <v>2.480000019073486</v>
       </c>
       <c r="D93">
-        <v>2.857142925262451</v>
+        <v>3.480000019073486</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>-1</v>
+        <v>-2.681999921798706</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1.681999921798706</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2.681999921798706</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>-0.6700000166893005</v>
+        <v>-4.598000049591064</v>
       </c>
       <c r="B95">
-        <v>0.3499999940395355</v>
+        <v>1.620000004768372</v>
       </c>
       <c r="C95">
-        <v>0.320000022649765</v>
+        <v>2.978000164031982</v>
       </c>
       <c r="D95">
-        <v>1.914285778999329</v>
+        <v>2.838271617889404</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>-1</v>
+        <v>-1.223999977111816</v>
       </c>
       <c r="B96">
-        <v>0.2700000107288361</v>
+        <v>1.059000015258789</v>
       </c>
       <c r="C96">
-        <v>0.7300000190734863</v>
+        <v>0.1649999618530273</v>
       </c>
       <c r="D96">
-        <v>3.703703641891479</v>
+        <v>1.155807375907898</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>-0.7099999785423279</v>
+        <v>-9.27299976348877</v>
       </c>
       <c r="B97">
-        <v>0.3499999940395355</v>
+        <v>1.023000001907349</v>
       </c>
       <c r="C97">
-        <v>0.3599999845027924</v>
+        <v>8.25</v>
       </c>
       <c r="D97">
-        <v>2.028571367263794</v>
+        <v>9.064516067504883</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>-2.710000038146973</v>
+        <v>-5.781000137329102</v>
       </c>
       <c r="B98">
-        <v>0.2599999904632568</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="C98">
-        <v>2.450000047683716</v>
+        <v>4.541000366210938</v>
       </c>
       <c r="D98">
-        <v>10.42307758331299</v>
+        <v>4.662096977233887</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>-1.279999971389771</v>
+        <v>-1.167999982833862</v>
       </c>
       <c r="B99">
-        <v>0.3499999940395355</v>
+        <v>1.167999982833862</v>
       </c>
       <c r="C99">
-        <v>0.9299999475479126</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>3.657142877578735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1780,853 +1780,69 @@
         <v>-1</v>
       </c>
       <c r="B100">
-        <v>0.2700000107288361</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>0.7300000190734863</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>3.703703641891479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>-1</v>
+        <v>-4.409999847412109</v>
       </c>
       <c r="B101">
-        <v>0.2599999904632568</v>
+        <v>1.180999994277954</v>
       </c>
       <c r="C101">
-        <v>0.7400000095367432</v>
+        <v>3.228999853134155</v>
       </c>
       <c r="D101">
-        <v>3.846153974533081</v>
+        <v>3.734123468399048</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>-1</v>
+        <v>-2.016000032424927</v>
       </c>
       <c r="B102">
-        <v>0.3499999940395355</v>
+        <v>1.083999991416931</v>
       </c>
       <c r="C102">
-        <v>0.6499999761581421</v>
+        <v>0.9320000410079956</v>
       </c>
       <c r="D102">
-        <v>2.857142925262451</v>
+        <v>1.859778642654419</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>-0.3799999952316284</v>
+        <v>-2.219000101089478</v>
       </c>
       <c r="B103">
-        <v>0.3199999928474426</v>
+        <v>1.664000034332275</v>
       </c>
       <c r="C103">
-        <v>0.06000000238418579</v>
+        <v>0.5550000667572021</v>
       </c>
       <c r="D103">
-        <v>1.1875</v>
+        <v>1.333533644676208</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>-1.029999971389771</v>
+        <v>-1</v>
       </c>
       <c r="B104">
-        <v>0.3300000131130219</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>0.6999999284744263</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>3.121212005615234</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>-2.140000104904175</v>
-      </c>
-      <c r="B105">
-        <v>0.4399999976158142</v>
-      </c>
-      <c r="C105">
-        <v>1.700000047683716</v>
-      </c>
-      <c r="D105">
-        <v>4.863636493682861</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>-1.240000009536743</v>
-      </c>
-      <c r="B106">
-        <v>0.4399999976158142</v>
-      </c>
-      <c r="C106">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="D106">
-        <v>2.818181753158569</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>-3.130000114440918</v>
-      </c>
-      <c r="B107">
-        <v>0.4099999964237213</v>
-      </c>
-      <c r="C107">
-        <v>2.720000028610229</v>
-      </c>
-      <c r="D107">
-        <v>7.634146690368652</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>-1</v>
-      </c>
-      <c r="B108">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="C108">
-        <v>0.6800000071525574</v>
-      </c>
-      <c r="D108">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>-0.4699999988079071</v>
-      </c>
-      <c r="B109">
-        <v>0.4000000059604645</v>
-      </c>
-      <c r="C109">
-        <v>0.06999999284744263</v>
-      </c>
-      <c r="D109">
-        <v>1.174999952316284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>-0.8899999856948853</v>
-      </c>
-      <c r="B110">
-        <v>0.3300000131130219</v>
-      </c>
-      <c r="C110">
-        <v>0.559999942779541</v>
-      </c>
-      <c r="D110">
-        <v>2.696969509124756</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>-1</v>
-      </c>
-      <c r="B111">
-        <v>0.3300000131130219</v>
-      </c>
-      <c r="C111">
-        <v>0.6699999570846558</v>
-      </c>
-      <c r="D111">
-        <v>3.030303001403809</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>-1</v>
-      </c>
-      <c r="B112">
-        <v>0.3100000023841858</v>
-      </c>
-      <c r="C112">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="D112">
-        <v>3.225806474685669</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>-1</v>
-      </c>
-      <c r="B113">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C113">
-        <v>0.7300000190734863</v>
-      </c>
-      <c r="D113">
-        <v>3.703703641891479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>-0.2700000107288361</v>
-      </c>
-      <c r="B114">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>-0.3799999952316284</v>
-      </c>
-      <c r="B115">
-        <v>0.3799999952316284</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
-        <v>-1</v>
-      </c>
-      <c r="B116">
-        <v>0.3700000047683716</v>
-      </c>
-      <c r="C116">
-        <v>0.6299999952316284</v>
-      </c>
-      <c r="D116">
-        <v>2.702702760696411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>-1.669999957084656</v>
-      </c>
-      <c r="B117">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C117">
-        <v>1.399999976158142</v>
-      </c>
-      <c r="D117">
-        <v>6.185184955596924</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>-0.3499999940395355</v>
-      </c>
-      <c r="B118">
-        <v>0.3499999940395355</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
-        <v>-1</v>
-      </c>
-      <c r="B119">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C119">
-        <v>0.7400000095367432</v>
-      </c>
-      <c r="D119">
-        <v>3.846153974533081</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
-        <v>-0.3700000047683716</v>
-      </c>
-      <c r="B120">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="C120">
-        <v>0.09000000357627869</v>
-      </c>
-      <c r="D120">
-        <v>1.321428537368774</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121">
-        <v>-1</v>
-      </c>
-      <c r="B121">
-        <v>0.4199999868869781</v>
-      </c>
-      <c r="C121">
-        <v>0.5800000429153442</v>
-      </c>
-      <c r="D121">
-        <v>2.38095235824585</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122">
-        <v>-1.259999990463257</v>
-      </c>
-      <c r="B122">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>4.84615421295166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123">
-        <v>-1</v>
-      </c>
-      <c r="B123">
-        <v>0.3100000023841858</v>
-      </c>
-      <c r="C123">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="D123">
-        <v>3.225806474685669</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124">
-        <v>-1.129999995231628</v>
-      </c>
-      <c r="B124">
-        <v>0.4300000071525574</v>
-      </c>
-      <c r="C124">
-        <v>0.699999988079071</v>
-      </c>
-      <c r="D124">
-        <v>2.627907037734985</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125">
-        <v>-1.25</v>
-      </c>
-      <c r="B125">
-        <v>0.3700000047683716</v>
-      </c>
-      <c r="C125">
-        <v>0.8799999952316284</v>
-      </c>
-      <c r="D125">
-        <v>3.378378391265869</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
-        <v>-1</v>
-      </c>
-      <c r="B126">
-        <v>0.5199999809265137</v>
-      </c>
-      <c r="C126">
-        <v>0.4800000190734863</v>
-      </c>
-      <c r="D126">
-        <v>1.923076987266541</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127">
-        <v>-1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
-        <v>-0.3100000023841858</v>
-      </c>
-      <c r="B128">
-        <v>0.3100000023841858</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129">
-        <v>-1</v>
-      </c>
-      <c r="B129">
-        <v>0.5699999928474426</v>
-      </c>
-      <c r="C129">
-        <v>0.4300000071525574</v>
-      </c>
-      <c r="D129">
-        <v>1.754385948181152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130">
-        <v>-1.009999990463257</v>
-      </c>
-      <c r="B130">
-        <v>0.3499999940395355</v>
-      </c>
-      <c r="C130">
-        <v>0.6599999666213989</v>
-      </c>
-      <c r="D130">
-        <v>2.885714292526245</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131">
-        <v>-1.289999961853027</v>
-      </c>
-      <c r="B131">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="C131">
-        <v>0.9699999690055847</v>
-      </c>
-      <c r="D131">
-        <v>4.03125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132">
-        <v>-1</v>
-      </c>
-      <c r="B132">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="C132">
-        <v>0.699999988079071</v>
-      </c>
-      <c r="D132">
-        <v>3.333333253860474</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133">
-        <v>-1</v>
-      </c>
-      <c r="B133">
-        <v>0.449999988079071</v>
-      </c>
-      <c r="C133">
-        <v>0.550000011920929</v>
-      </c>
-      <c r="D133">
-        <v>2.222222328186035</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134">
-        <v>-0.449999988079071</v>
-      </c>
-      <c r="B134">
-        <v>0.2899999916553497</v>
-      </c>
-      <c r="C134">
-        <v>0.1599999964237213</v>
-      </c>
-      <c r="D134">
-        <v>1.551724195480347</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135">
-        <v>-1</v>
-      </c>
-      <c r="B135">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="C135">
-        <v>0.699999988079071</v>
-      </c>
-      <c r="D135">
-        <v>3.333333253860474</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136">
-        <v>-0.3600000143051147</v>
-      </c>
-      <c r="B136">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C136">
-        <v>0.09000000357627869</v>
-      </c>
-      <c r="D136">
-        <v>1.333333373069763</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137">
-        <v>-1</v>
-      </c>
-      <c r="B137">
-        <v>0.3100000023841858</v>
-      </c>
-      <c r="C137">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="D137">
-        <v>3.225806474685669</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138">
-        <v>-0.699999988079071</v>
-      </c>
-      <c r="B138">
-        <v>0.25</v>
-      </c>
-      <c r="C138">
-        <v>0.449999988079071</v>
-      </c>
-      <c r="D138">
-        <v>2.799999952316284</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139">
-        <v>-0.2700000107288361</v>
-      </c>
-      <c r="B139">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140">
-        <v>-1.169999957084656</v>
-      </c>
-      <c r="B140">
-        <v>0.3300000131130219</v>
-      </c>
-      <c r="C140">
-        <v>0.8399999141693115</v>
-      </c>
-      <c r="D140">
-        <v>3.545454263687134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141">
-        <v>-1.679999947547913</v>
-      </c>
-      <c r="B141">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C141">
-        <v>1.419999957084656</v>
-      </c>
-      <c r="D141">
-        <v>6.461538314819336</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142">
-        <v>-1</v>
-      </c>
-      <c r="B142">
-        <v>0.550000011920929</v>
-      </c>
-      <c r="C142">
-        <v>0.449999988079071</v>
-      </c>
-      <c r="D142">
-        <v>1.818181753158569</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143">
-        <v>-1</v>
-      </c>
-      <c r="B143">
-        <v>0.5</v>
-      </c>
-      <c r="C143">
-        <v>0.5</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144">
-        <v>-1</v>
-      </c>
-      <c r="B144">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="C144">
-        <v>0.6800000071525574</v>
-      </c>
-      <c r="D144">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145">
-        <v>-0.75</v>
-      </c>
-      <c r="B145">
-        <v>0.4099999964237213</v>
-      </c>
-      <c r="C145">
-        <v>0.3400000035762787</v>
-      </c>
-      <c r="D145">
-        <v>1.829268336296082</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
-        <v>-0.8700000047683716</v>
-      </c>
-      <c r="B146">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="C146">
-        <v>0.550000011920929</v>
-      </c>
-      <c r="D146">
-        <v>2.71875</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147">
-        <v>-1.259999990463257</v>
-      </c>
-      <c r="B147">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C147">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="D147">
-        <v>4.666666507720947</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148">
-        <v>-1</v>
-      </c>
-      <c r="B148">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C148">
-        <v>0.7300000190734863</v>
-      </c>
-      <c r="D148">
-        <v>3.703703641891479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149">
-        <v>-2</v>
-      </c>
-      <c r="B149">
-        <v>0.3400000035762787</v>
-      </c>
-      <c r="C149">
-        <v>1.659999966621399</v>
-      </c>
-      <c r="D149">
-        <v>5.882352828979492</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150">
-        <v>-1.379999995231628</v>
-      </c>
-      <c r="B150">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C150">
-        <v>1.120000004768372</v>
-      </c>
-      <c r="D150">
-        <v>5.307692527770996</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151">
-        <v>-0.3100000023841858</v>
-      </c>
-      <c r="B151">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C151">
-        <v>0.05000001192092896</v>
-      </c>
-      <c r="D151">
-        <v>1.192307710647583</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152">
-        <v>-2.319999933242798</v>
-      </c>
-      <c r="B152">
-        <v>0.2599999904632568</v>
-      </c>
-      <c r="C152">
-        <v>2.059999942779541</v>
-      </c>
-      <c r="D152">
-        <v>8.923076629638672</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153">
-        <v>-1</v>
-      </c>
-      <c r="B153">
-        <v>0.3600000143051147</v>
-      </c>
-      <c r="C153">
-        <v>0.6399999856948853</v>
-      </c>
-      <c r="D153">
-        <v>2.777777671813965</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154">
-        <v>-2.880000114440918</v>
-      </c>
-      <c r="B154">
-        <v>0.2700000107288361</v>
-      </c>
-      <c r="C154">
-        <v>2.610000133514404</v>
-      </c>
-      <c r="D154">
-        <v>10.66666698455811</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155">
-        <v>-0.5199999809265137</v>
-      </c>
-      <c r="B155">
-        <v>0.3600000143051147</v>
-      </c>
-      <c r="C155">
-        <v>0.1599999666213989</v>
-      </c>
-      <c r="D155">
-        <v>1.444444298744202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156">
-        <v>-1.570000052452087</v>
-      </c>
-      <c r="B156">
-        <v>0.3199999928474426</v>
-      </c>
-      <c r="C156">
-        <v>1.25</v>
-      </c>
-      <c r="D156">
-        <v>4.906250476837158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157">
-        <v>-1</v>
-      </c>
-      <c r="B157">
-        <v>0.4399999976158142</v>
-      </c>
-      <c r="C157">
-        <v>0.5600000023841858</v>
-      </c>
-      <c r="D157">
-        <v>2.272727251052856</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158">
-        <v>-1.879999995231628</v>
-      </c>
-      <c r="B158">
-        <v>0.3799999952316284</v>
-      </c>
-      <c r="C158">
-        <v>1.5</v>
-      </c>
-      <c r="D158">
-        <v>4.947368621826172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159">
-        <v>-0.3700000047683716</v>
-      </c>
-      <c r="B159">
-        <v>0.300000011920929</v>
-      </c>
-      <c r="C159">
-        <v>0.06999999284744263</v>
-      </c>
-      <c r="D159">
-        <v>1.233333349227905</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160">
-        <v>-1</v>
-      </c>
-      <c r="B160">
-        <v>0.5600000023841858</v>
-      </c>
-      <c r="C160">
-        <v>0.4399999976158142</v>
-      </c>
-      <c r="D160">
-        <v>1.785714268684387</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
